--- a/BalanceSheet/WELL_bal.xlsx
+++ b/BalanceSheet/WELL_bal.xlsx
@@ -4196,7 +4196,7 @@
         <v>14393000000.0</v>
       </c>
       <c r="G31" s="0" t="n">
-        <v>15489000000.0</v>
+        <v>15648304000.0</v>
       </c>
       <c r="H31" s="0" t="n">
         <v>13356905000.0</v>
@@ -4323,7 +4323,7 @@
         <v>14786000000.0</v>
       </c>
       <c r="G32" s="0" t="n">
-        <v>15875000000.0</v>
+        <v>16034070000.0</v>
       </c>
       <c r="H32" s="0" t="n">
         <v>13687640000.0</v>
